--- a/testGithub.xlsx
+++ b/testGithub.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrig\Desktop\Github Testing\PBI_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF16D2-323A-422C-8680-E1FF054B40DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388616C8-7191-4CC8-A550-F8E2C43B0DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
